--- a/FileNames/19-EC-QCD-006 Internal Audit PM.xlsx
+++ b/FileNames/19-EC-QCD-006 Internal Audit PM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Google Drive\QMS-Updated Names\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8505"/>
   </bookViews>
@@ -1260,10 +1265,25 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1282,21 +1302,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1331,6 +1336,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1355,15 +1369,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1373,6 +1378,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1421,7 +1429,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1456,7 +1464,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1866,20 +1874,20 @@
       <c r="V8" s="29"/>
       <c r="W8" s="29"/>
       <c r="X8" s="29"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="20"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="25"/>
     </row>
     <row r="9" spans="1:38" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1896,20 +1904,20 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
@@ -1940,20 +1948,20 @@
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
@@ -1984,20 +1992,20 @@
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
@@ -2028,20 +2036,20 @@
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
@@ -2072,20 +2080,20 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -2102,30 +2110,30 @@
       <c r="AL13" s="11"/>
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="16" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
       <c r="U14" s="30"/>
       <c r="V14" s="30"/>
       <c r="W14" s="30"/>
@@ -2146,7 +2154,7 @@
       <c r="AL14" s="36"/>
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="15"/>
@@ -2160,20 +2168,20 @@
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
@@ -2204,20 +2212,20 @@
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
@@ -2248,14 +2256,14 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="28"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="22"/>
       <c r="U17" s="9"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
@@ -2290,20 +2298,20 @@
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
@@ -2334,20 +2342,20 @@
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
@@ -2378,20 +2386,20 @@
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
@@ -2422,20 +2430,20 @@
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="16" t="s">
+      <c r="M21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
@@ -2452,30 +2460,30 @@
       <c r="AL21" s="11"/>
     </row>
     <row r="22" spans="1:38" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="16" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
       <c r="U22" s="5"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -2496,30 +2504,30 @@
       <c r="AL22" s="8"/>
     </row>
     <row r="23" spans="1:38" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="16" t="s">
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
       <c r="U23" s="5"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -2554,20 +2562,20 @@
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="16" t="s">
+      <c r="M24" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
@@ -2584,20 +2592,20 @@
       <c r="AL24" s="11"/>
     </row>
     <row r="25" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="28"/>
       <c r="M25" s="31"/>
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
@@ -2606,24 +2614,24 @@
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="33"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="22"/>
-      <c r="AG25" s="22"/>
-      <c r="AH25" s="22"/>
-      <c r="AI25" s="22"/>
-      <c r="AJ25" s="22"/>
-      <c r="AK25" s="22"/>
-      <c r="AL25" s="23"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="28"/>
     </row>
     <row r="26" spans="1:38" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -2640,16 +2648,16 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="16" t="s">
+      <c r="M26" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
       <c r="U26" s="9"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -2684,20 +2692,20 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="16" t="s">
+      <c r="M27" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
@@ -2728,20 +2736,20 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
@@ -2772,20 +2780,20 @@
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="16" t="s">
+      <c r="M29" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
@@ -2816,20 +2824,20 @@
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
-      <c r="M30" s="16" t="s">
+      <c r="M30" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="10"/>
       <c r="AA30" s="10"/>
@@ -2860,20 +2868,20 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="16" t="s">
+      <c r="M31" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
@@ -2904,20 +2912,20 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="16" t="s">
+      <c r="M32" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
@@ -2948,20 +2956,20 @@
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
-      <c r="M33" s="16" t="s">
+      <c r="M33" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
@@ -2992,16 +3000,16 @@
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="16" t="s">
+      <c r="M34" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
       <c r="U34" s="9"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
@@ -3036,20 +3044,20 @@
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="16" t="s">
+      <c r="M35" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
@@ -3080,20 +3088,20 @@
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="16" t="s">
+      <c r="M36" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
@@ -3124,16 +3132,16 @@
       <c r="J37" s="37"/>
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
-      <c r="M37" s="16" t="s">
+      <c r="M37" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
       <c r="U37" s="37"/>
       <c r="V37" s="37"/>
       <c r="W37" s="37"/>
@@ -3168,16 +3176,16 @@
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="16" t="s">
+      <c r="M38" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
       <c r="U38" s="37"/>
       <c r="V38" s="37"/>
       <c r="W38" s="37"/>
@@ -3198,20 +3206,20 @@
       <c r="AL38" s="37"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="23"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="28"/>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
       <c r="O39" s="38"/>
@@ -3254,32 +3262,32 @@
       <c r="J40" s="35"/>
       <c r="K40" s="35"/>
       <c r="L40" s="36"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="51"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="51"/>
-      <c r="AC40" s="51"/>
-      <c r="AD40" s="51"/>
-      <c r="AE40" s="51"/>
-      <c r="AF40" s="51"/>
-      <c r="AG40" s="51"/>
-      <c r="AH40" s="51"/>
-      <c r="AI40" s="51"/>
-      <c r="AJ40" s="51"/>
-      <c r="AK40" s="51"/>
-      <c r="AL40" s="52"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="41"/>
+      <c r="AC40" s="41"/>
+      <c r="AD40" s="41"/>
+      <c r="AE40" s="41"/>
+      <c r="AF40" s="41"/>
+      <c r="AG40" s="41"/>
+      <c r="AH40" s="41"/>
+      <c r="AI40" s="41"/>
+      <c r="AJ40" s="41"/>
+      <c r="AK40" s="41"/>
+      <c r="AL40" s="42"/>
     </row>
     <row r="41" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
@@ -3306,24 +3314,24 @@
       <c r="R41" s="39"/>
       <c r="S41" s="39"/>
       <c r="T41" s="39"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="40"/>
-      <c r="AA41" s="40"/>
-      <c r="AB41" s="40"/>
-      <c r="AC41" s="40"/>
-      <c r="AD41" s="40"/>
-      <c r="AE41" s="40"/>
-      <c r="AF41" s="40"/>
-      <c r="AG41" s="40"/>
-      <c r="AH41" s="40"/>
-      <c r="AI41" s="40"/>
-      <c r="AJ41" s="40"/>
-      <c r="AK41" s="40"/>
-      <c r="AL41" s="40"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="43"/>
+      <c r="AE41" s="43"/>
+      <c r="AF41" s="43"/>
+      <c r="AG41" s="43"/>
+      <c r="AH41" s="43"/>
+      <c r="AI41" s="43"/>
+      <c r="AJ41" s="43"/>
+      <c r="AK41" s="43"/>
+      <c r="AL41" s="43"/>
     </row>
     <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
@@ -3340,16 +3348,16 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="11"/>
-      <c r="M42" s="16" t="s">
+      <c r="M42" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
       <c r="U42" s="37"/>
       <c r="V42" s="37"/>
       <c r="W42" s="37"/>
@@ -3384,16 +3392,16 @@
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="M43" s="16" t="s">
+      <c r="M43" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
       <c r="U43" s="37"/>
       <c r="V43" s="37"/>
       <c r="W43" s="37"/>
@@ -3428,16 +3436,16 @@
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="16" t="s">
+      <c r="M44" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
       <c r="U44" s="37"/>
       <c r="V44" s="37"/>
       <c r="W44" s="37"/>
@@ -3472,16 +3480,16 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="11"/>
-      <c r="M45" s="16" t="s">
+      <c r="M45" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
       <c r="U45" s="37"/>
       <c r="V45" s="37"/>
       <c r="W45" s="37"/>
@@ -3516,16 +3524,16 @@
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
       <c r="L46" s="37"/>
-      <c r="M46" s="16" t="s">
+      <c r="M46" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
       <c r="U46" s="37"/>
       <c r="V46" s="37"/>
       <c r="W46" s="37"/>
@@ -3560,16 +3568,16 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="11"/>
-      <c r="M47" s="16" t="s">
+      <c r="M47" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
       <c r="U47" s="37"/>
       <c r="V47" s="37"/>
       <c r="W47" s="37"/>
@@ -3590,754 +3598,754 @@
       <c r="AL47" s="37"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="42"/>
-      <c r="R48" s="42"/>
-      <c r="S48" s="42"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="42"/>
-      <c r="W48" s="42"/>
-      <c r="X48" s="42"/>
-      <c r="Y48" s="42"/>
-      <c r="Z48" s="42"/>
-      <c r="AA48" s="42"/>
-      <c r="AB48" s="42"/>
-      <c r="AC48" s="42"/>
-      <c r="AD48" s="42"/>
-      <c r="AE48" s="42"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="42"/>
-      <c r="AH48" s="42"/>
-      <c r="AI48" s="42"/>
-      <c r="AJ48" s="42"/>
-      <c r="AK48" s="42"/>
-      <c r="AL48" s="42"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="45"/>
+      <c r="AC48" s="45"/>
+      <c r="AD48" s="45"/>
+      <c r="AE48" s="45"/>
+      <c r="AF48" s="45"/>
+      <c r="AG48" s="45"/>
+      <c r="AH48" s="45"/>
+      <c r="AI48" s="45"/>
+      <c r="AJ48" s="45"/>
+      <c r="AK48" s="45"/>
+      <c r="AL48" s="45"/>
     </row>
     <row r="49" spans="1:38" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="16" t="s">
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="41"/>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="41"/>
-      <c r="AC49" s="41"/>
-      <c r="AD49" s="41"/>
-      <c r="AE49" s="41"/>
-      <c r="AF49" s="41"/>
-      <c r="AG49" s="41"/>
-      <c r="AH49" s="41"/>
-      <c r="AI49" s="41"/>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="41"/>
-      <c r="AL49" s="41"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="44"/>
+      <c r="Z49" s="44"/>
+      <c r="AA49" s="44"/>
+      <c r="AB49" s="44"/>
+      <c r="AC49" s="44"/>
+      <c r="AD49" s="44"/>
+      <c r="AE49" s="44"/>
+      <c r="AF49" s="44"/>
+      <c r="AG49" s="44"/>
+      <c r="AH49" s="44"/>
+      <c r="AI49" s="44"/>
+      <c r="AJ49" s="44"/>
+      <c r="AK49" s="44"/>
+      <c r="AL49" s="44"/>
     </row>
     <row r="50" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="16" t="s">
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="41"/>
-      <c r="V50" s="41"/>
-      <c r="W50" s="41"/>
-      <c r="X50" s="41"/>
-      <c r="Y50" s="41"/>
-      <c r="Z50" s="41"/>
-      <c r="AA50" s="41"/>
-      <c r="AB50" s="41"/>
-      <c r="AC50" s="41"/>
-      <c r="AD50" s="41"/>
-      <c r="AE50" s="41"/>
-      <c r="AF50" s="41"/>
-      <c r="AG50" s="41"/>
-      <c r="AH50" s="41"/>
-      <c r="AI50" s="41"/>
-      <c r="AJ50" s="41"/>
-      <c r="AK50" s="41"/>
-      <c r="AL50" s="41"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="44"/>
+      <c r="AC50" s="44"/>
+      <c r="AD50" s="44"/>
+      <c r="AE50" s="44"/>
+      <c r="AF50" s="44"/>
+      <c r="AG50" s="44"/>
+      <c r="AH50" s="44"/>
+      <c r="AI50" s="44"/>
+      <c r="AJ50" s="44"/>
+      <c r="AK50" s="44"/>
+      <c r="AL50" s="44"/>
     </row>
     <row r="51" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="16" t="s">
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="41"/>
-      <c r="V51" s="41"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="41"/>
-      <c r="Y51" s="41"/>
-      <c r="Z51" s="41"/>
-      <c r="AA51" s="41"/>
-      <c r="AB51" s="41"/>
-      <c r="AC51" s="41"/>
-      <c r="AD51" s="41"/>
-      <c r="AE51" s="41"/>
-      <c r="AF51" s="41"/>
-      <c r="AG51" s="41"/>
-      <c r="AH51" s="41"/>
-      <c r="AI51" s="41"/>
-      <c r="AJ51" s="41"/>
-      <c r="AK51" s="41"/>
-      <c r="AL51" s="41"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="44"/>
+      <c r="AA51" s="44"/>
+      <c r="AB51" s="44"/>
+      <c r="AC51" s="44"/>
+      <c r="AD51" s="44"/>
+      <c r="AE51" s="44"/>
+      <c r="AF51" s="44"/>
+      <c r="AG51" s="44"/>
+      <c r="AH51" s="44"/>
+      <c r="AI51" s="44"/>
+      <c r="AJ51" s="44"/>
+      <c r="AK51" s="44"/>
+      <c r="AL51" s="44"/>
     </row>
     <row r="52" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="16" t="s">
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="41"/>
-      <c r="V52" s="41"/>
-      <c r="W52" s="41"/>
-      <c r="X52" s="41"/>
-      <c r="Y52" s="41"/>
-      <c r="Z52" s="41"/>
-      <c r="AA52" s="41"/>
-      <c r="AB52" s="41"/>
-      <c r="AC52" s="41"/>
-      <c r="AD52" s="41"/>
-      <c r="AE52" s="41"/>
-      <c r="AF52" s="41"/>
-      <c r="AG52" s="41"/>
-      <c r="AH52" s="41"/>
-      <c r="AI52" s="41"/>
-      <c r="AJ52" s="41"/>
-      <c r="AK52" s="41"/>
-      <c r="AL52" s="41"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="44"/>
+      <c r="Y52" s="44"/>
+      <c r="Z52" s="44"/>
+      <c r="AA52" s="44"/>
+      <c r="AB52" s="44"/>
+      <c r="AC52" s="44"/>
+      <c r="AD52" s="44"/>
+      <c r="AE52" s="44"/>
+      <c r="AF52" s="44"/>
+      <c r="AG52" s="44"/>
+      <c r="AH52" s="44"/>
+      <c r="AI52" s="44"/>
+      <c r="AJ52" s="44"/>
+      <c r="AK52" s="44"/>
+      <c r="AL52" s="44"/>
     </row>
     <row r="53" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="16" t="s">
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="41"/>
-      <c r="V53" s="41"/>
-      <c r="W53" s="41"/>
-      <c r="X53" s="41"/>
-      <c r="Y53" s="41"/>
-      <c r="Z53" s="41"/>
-      <c r="AA53" s="41"/>
-      <c r="AB53" s="41"/>
-      <c r="AC53" s="41"/>
-      <c r="AD53" s="41"/>
-      <c r="AE53" s="41"/>
-      <c r="AF53" s="41"/>
-      <c r="AG53" s="41"/>
-      <c r="AH53" s="41"/>
-      <c r="AI53" s="41"/>
-      <c r="AJ53" s="41"/>
-      <c r="AK53" s="41"/>
-      <c r="AL53" s="41"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="44"/>
+      <c r="Y53" s="44"/>
+      <c r="Z53" s="44"/>
+      <c r="AA53" s="44"/>
+      <c r="AB53" s="44"/>
+      <c r="AC53" s="44"/>
+      <c r="AD53" s="44"/>
+      <c r="AE53" s="44"/>
+      <c r="AF53" s="44"/>
+      <c r="AG53" s="44"/>
+      <c r="AH53" s="44"/>
+      <c r="AI53" s="44"/>
+      <c r="AJ53" s="44"/>
+      <c r="AK53" s="44"/>
+      <c r="AL53" s="44"/>
     </row>
     <row r="54" spans="1:38" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="44"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="16" t="s">
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="41"/>
-      <c r="V54" s="41"/>
-      <c r="W54" s="41"/>
-      <c r="X54" s="41"/>
-      <c r="Y54" s="41"/>
-      <c r="Z54" s="41"/>
-      <c r="AA54" s="41"/>
-      <c r="AB54" s="41"/>
-      <c r="AC54" s="41"/>
-      <c r="AD54" s="41"/>
-      <c r="AE54" s="41"/>
-      <c r="AF54" s="41"/>
-      <c r="AG54" s="41"/>
-      <c r="AH54" s="41"/>
-      <c r="AI54" s="41"/>
-      <c r="AJ54" s="41"/>
-      <c r="AK54" s="41"/>
-      <c r="AL54" s="41"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="44"/>
+      <c r="Y54" s="44"/>
+      <c r="Z54" s="44"/>
+      <c r="AA54" s="44"/>
+      <c r="AB54" s="44"/>
+      <c r="AC54" s="44"/>
+      <c r="AD54" s="44"/>
+      <c r="AE54" s="44"/>
+      <c r="AF54" s="44"/>
+      <c r="AG54" s="44"/>
+      <c r="AH54" s="44"/>
+      <c r="AI54" s="44"/>
+      <c r="AJ54" s="44"/>
+      <c r="AK54" s="44"/>
+      <c r="AL54" s="44"/>
     </row>
     <row r="55" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="16" t="s">
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="41"/>
-      <c r="V55" s="41"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="41"/>
-      <c r="Y55" s="41"/>
-      <c r="Z55" s="41"/>
-      <c r="AA55" s="41"/>
-      <c r="AB55" s="41"/>
-      <c r="AC55" s="41"/>
-      <c r="AD55" s="41"/>
-      <c r="AE55" s="41"/>
-      <c r="AF55" s="41"/>
-      <c r="AG55" s="41"/>
-      <c r="AH55" s="41"/>
-      <c r="AI55" s="41"/>
-      <c r="AJ55" s="41"/>
-      <c r="AK55" s="41"/>
-      <c r="AL55" s="41"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="44"/>
+      <c r="Y55" s="44"/>
+      <c r="Z55" s="44"/>
+      <c r="AA55" s="44"/>
+      <c r="AB55" s="44"/>
+      <c r="AC55" s="44"/>
+      <c r="AD55" s="44"/>
+      <c r="AE55" s="44"/>
+      <c r="AF55" s="44"/>
+      <c r="AG55" s="44"/>
+      <c r="AH55" s="44"/>
+      <c r="AI55" s="44"/>
+      <c r="AJ55" s="44"/>
+      <c r="AK55" s="44"/>
+      <c r="AL55" s="44"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="41"/>
-      <c r="S56" s="41"/>
-      <c r="T56" s="41"/>
-      <c r="U56" s="41"/>
-      <c r="V56" s="41"/>
-      <c r="W56" s="41"/>
-      <c r="X56" s="41"/>
-      <c r="Y56" s="41"/>
-      <c r="Z56" s="41"/>
-      <c r="AA56" s="41"/>
-      <c r="AB56" s="41"/>
-      <c r="AC56" s="41"/>
-      <c r="AD56" s="41"/>
-      <c r="AE56" s="41"/>
-      <c r="AF56" s="41"/>
-      <c r="AG56" s="41"/>
-      <c r="AH56" s="41"/>
-      <c r="AI56" s="41"/>
-      <c r="AJ56" s="41"/>
-      <c r="AK56" s="41"/>
-      <c r="AL56" s="41"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
+      <c r="U56" s="44"/>
+      <c r="V56" s="44"/>
+      <c r="W56" s="44"/>
+      <c r="X56" s="44"/>
+      <c r="Y56" s="44"/>
+      <c r="Z56" s="44"/>
+      <c r="AA56" s="44"/>
+      <c r="AB56" s="44"/>
+      <c r="AC56" s="44"/>
+      <c r="AD56" s="44"/>
+      <c r="AE56" s="44"/>
+      <c r="AF56" s="44"/>
+      <c r="AG56" s="44"/>
+      <c r="AH56" s="44"/>
+      <c r="AI56" s="44"/>
+      <c r="AJ56" s="44"/>
+      <c r="AK56" s="44"/>
+      <c r="AL56" s="44"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="41"/>
-      <c r="S57" s="41"/>
-      <c r="T57" s="41"/>
-      <c r="U57" s="41"/>
-      <c r="V57" s="41"/>
-      <c r="W57" s="41"/>
-      <c r="X57" s="41"/>
-      <c r="Y57" s="41"/>
-      <c r="Z57" s="41"/>
-      <c r="AA57" s="41"/>
-      <c r="AB57" s="41"/>
-      <c r="AC57" s="41"/>
-      <c r="AD57" s="41"/>
-      <c r="AE57" s="41"/>
-      <c r="AF57" s="41"/>
-      <c r="AG57" s="41"/>
-      <c r="AH57" s="41"/>
-      <c r="AI57" s="41"/>
-      <c r="AJ57" s="41"/>
-      <c r="AK57" s="41"/>
-      <c r="AL57" s="41"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="44"/>
+      <c r="W57" s="44"/>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="44"/>
+      <c r="AA57" s="44"/>
+      <c r="AB57" s="44"/>
+      <c r="AC57" s="44"/>
+      <c r="AD57" s="44"/>
+      <c r="AE57" s="44"/>
+      <c r="AF57" s="44"/>
+      <c r="AG57" s="44"/>
+      <c r="AH57" s="44"/>
+      <c r="AI57" s="44"/>
+      <c r="AJ57" s="44"/>
+      <c r="AK57" s="44"/>
+      <c r="AL57" s="44"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="41"/>
-      <c r="T58" s="41"/>
-      <c r="U58" s="41"/>
-      <c r="V58" s="41"/>
-      <c r="W58" s="41"/>
-      <c r="X58" s="41"/>
-      <c r="Y58" s="41"/>
-      <c r="Z58" s="41"/>
-      <c r="AA58" s="41"/>
-      <c r="AB58" s="41"/>
-      <c r="AC58" s="41"/>
-      <c r="AD58" s="41"/>
-      <c r="AE58" s="41"/>
-      <c r="AF58" s="41"/>
-      <c r="AG58" s="41"/>
-      <c r="AH58" s="41"/>
-      <c r="AI58" s="41"/>
-      <c r="AJ58" s="41"/>
-      <c r="AK58" s="41"/>
-      <c r="AL58" s="41"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="44"/>
+      <c r="X58" s="44"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="44"/>
+      <c r="AA58" s="44"/>
+      <c r="AB58" s="44"/>
+      <c r="AC58" s="44"/>
+      <c r="AD58" s="44"/>
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="44"/>
+      <c r="AG58" s="44"/>
+      <c r="AH58" s="44"/>
+      <c r="AI58" s="44"/>
+      <c r="AJ58" s="44"/>
+      <c r="AK58" s="44"/>
+      <c r="AL58" s="44"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="41"/>
-      <c r="R59" s="41"/>
-      <c r="S59" s="41"/>
-      <c r="T59" s="41"/>
-      <c r="U59" s="41"/>
-      <c r="V59" s="41"/>
-      <c r="W59" s="41"/>
-      <c r="X59" s="41"/>
-      <c r="Y59" s="41"/>
-      <c r="Z59" s="41"/>
-      <c r="AA59" s="41"/>
-      <c r="AB59" s="41"/>
-      <c r="AC59" s="41"/>
-      <c r="AD59" s="41"/>
-      <c r="AE59" s="41"/>
-      <c r="AF59" s="41"/>
-      <c r="AG59" s="41"/>
-      <c r="AH59" s="41"/>
-      <c r="AI59" s="41"/>
-      <c r="AJ59" s="41"/>
-      <c r="AK59" s="41"/>
-      <c r="AL59" s="41"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="44"/>
+      <c r="X59" s="44"/>
+      <c r="Y59" s="44"/>
+      <c r="Z59" s="44"/>
+      <c r="AA59" s="44"/>
+      <c r="AB59" s="44"/>
+      <c r="AC59" s="44"/>
+      <c r="AD59" s="44"/>
+      <c r="AE59" s="44"/>
+      <c r="AF59" s="44"/>
+      <c r="AG59" s="44"/>
+      <c r="AH59" s="44"/>
+      <c r="AI59" s="44"/>
+      <c r="AJ59" s="44"/>
+      <c r="AK59" s="44"/>
+      <c r="AL59" s="44"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
-      <c r="V60" s="41"/>
-      <c r="W60" s="41"/>
-      <c r="X60" s="41"/>
-      <c r="Y60" s="41"/>
-      <c r="Z60" s="41"/>
-      <c r="AA60" s="41"/>
-      <c r="AB60" s="41"/>
-      <c r="AC60" s="41"/>
-      <c r="AD60" s="41"/>
-      <c r="AE60" s="41"/>
-      <c r="AF60" s="41"/>
-      <c r="AG60" s="41"/>
-      <c r="AH60" s="41"/>
-      <c r="AI60" s="41"/>
-      <c r="AJ60" s="41"/>
-      <c r="AK60" s="41"/>
-      <c r="AL60" s="41"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="44"/>
+      <c r="W60" s="44"/>
+      <c r="X60" s="44"/>
+      <c r="Y60" s="44"/>
+      <c r="Z60" s="44"/>
+      <c r="AA60" s="44"/>
+      <c r="AB60" s="44"/>
+      <c r="AC60" s="44"/>
+      <c r="AD60" s="44"/>
+      <c r="AE60" s="44"/>
+      <c r="AF60" s="44"/>
+      <c r="AG60" s="44"/>
+      <c r="AH60" s="44"/>
+      <c r="AI60" s="44"/>
+      <c r="AJ60" s="44"/>
+      <c r="AK60" s="44"/>
+      <c r="AL60" s="44"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="41"/>
-      <c r="T61" s="41"/>
-      <c r="U61" s="41"/>
-      <c r="V61" s="41"/>
-      <c r="W61" s="41"/>
-      <c r="X61" s="41"/>
-      <c r="Y61" s="41"/>
-      <c r="Z61" s="41"/>
-      <c r="AA61" s="41"/>
-      <c r="AB61" s="41"/>
-      <c r="AC61" s="41"/>
-      <c r="AD61" s="41"/>
-      <c r="AE61" s="41"/>
-      <c r="AF61" s="41"/>
-      <c r="AG61" s="41"/>
-      <c r="AH61" s="41"/>
-      <c r="AI61" s="41"/>
-      <c r="AJ61" s="41"/>
-      <c r="AK61" s="41"/>
-      <c r="AL61" s="41"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="44"/>
+      <c r="R61" s="44"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="44"/>
+      <c r="V61" s="44"/>
+      <c r="W61" s="44"/>
+      <c r="X61" s="44"/>
+      <c r="Y61" s="44"/>
+      <c r="Z61" s="44"/>
+      <c r="AA61" s="44"/>
+      <c r="AB61" s="44"/>
+      <c r="AC61" s="44"/>
+      <c r="AD61" s="44"/>
+      <c r="AE61" s="44"/>
+      <c r="AF61" s="44"/>
+      <c r="AG61" s="44"/>
+      <c r="AH61" s="44"/>
+      <c r="AI61" s="44"/>
+      <c r="AJ61" s="44"/>
+      <c r="AK61" s="44"/>
+      <c r="AL61" s="44"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="41"/>
-      <c r="R62" s="41"/>
-      <c r="S62" s="41"/>
-      <c r="T62" s="41"/>
-      <c r="U62" s="41"/>
-      <c r="V62" s="41"/>
-      <c r="W62" s="41"/>
-      <c r="X62" s="41"/>
-      <c r="Y62" s="41"/>
-      <c r="Z62" s="41"/>
-      <c r="AA62" s="41"/>
-      <c r="AB62" s="41"/>
-      <c r="AC62" s="41"/>
-      <c r="AD62" s="41"/>
-      <c r="AE62" s="41"/>
-      <c r="AF62" s="41"/>
-      <c r="AG62" s="41"/>
-      <c r="AH62" s="41"/>
-      <c r="AI62" s="41"/>
-      <c r="AJ62" s="41"/>
-      <c r="AK62" s="41"/>
-      <c r="AL62" s="41"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="44"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="44"/>
+      <c r="V62" s="44"/>
+      <c r="W62" s="44"/>
+      <c r="X62" s="44"/>
+      <c r="Y62" s="44"/>
+      <c r="Z62" s="44"/>
+      <c r="AA62" s="44"/>
+      <c r="AB62" s="44"/>
+      <c r="AC62" s="44"/>
+      <c r="AD62" s="44"/>
+      <c r="AE62" s="44"/>
+      <c r="AF62" s="44"/>
+      <c r="AG62" s="44"/>
+      <c r="AH62" s="44"/>
+      <c r="AI62" s="44"/>
+      <c r="AJ62" s="44"/>
+      <c r="AK62" s="44"/>
+      <c r="AL62" s="44"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41"/>
-      <c r="R63" s="41"/>
-      <c r="S63" s="41"/>
-      <c r="T63" s="41"/>
-      <c r="U63" s="41"/>
-      <c r="V63" s="41"/>
-      <c r="W63" s="41"/>
-      <c r="X63" s="41"/>
-      <c r="Y63" s="41"/>
-      <c r="Z63" s="41"/>
-      <c r="AA63" s="41"/>
-      <c r="AB63" s="41"/>
-      <c r="AC63" s="41"/>
-      <c r="AD63" s="41"/>
-      <c r="AE63" s="41"/>
-      <c r="AF63" s="41"/>
-      <c r="AG63" s="41"/>
-      <c r="AH63" s="41"/>
-      <c r="AI63" s="41"/>
-      <c r="AJ63" s="41"/>
-      <c r="AK63" s="41"/>
-      <c r="AL63" s="41"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="44"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="44"/>
+      <c r="X63" s="44"/>
+      <c r="Y63" s="44"/>
+      <c r="Z63" s="44"/>
+      <c r="AA63" s="44"/>
+      <c r="AB63" s="44"/>
+      <c r="AC63" s="44"/>
+      <c r="AD63" s="44"/>
+      <c r="AE63" s="44"/>
+      <c r="AF63" s="44"/>
+      <c r="AG63" s="44"/>
+      <c r="AH63" s="44"/>
+      <c r="AI63" s="44"/>
+      <c r="AJ63" s="44"/>
+      <c r="AK63" s="44"/>
+      <c r="AL63" s="44"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41"/>
-      <c r="R64" s="41"/>
-      <c r="S64" s="41"/>
-      <c r="T64" s="41"/>
-      <c r="U64" s="41"/>
-      <c r="V64" s="41"/>
-      <c r="W64" s="41"/>
-      <c r="X64" s="41"/>
-      <c r="Y64" s="41"/>
-      <c r="Z64" s="41"/>
-      <c r="AA64" s="41"/>
-      <c r="AB64" s="41"/>
-      <c r="AC64" s="41"/>
-      <c r="AD64" s="41"/>
-      <c r="AE64" s="41"/>
-      <c r="AF64" s="41"/>
-      <c r="AG64" s="41"/>
-      <c r="AH64" s="41"/>
-      <c r="AI64" s="41"/>
-      <c r="AJ64" s="41"/>
-      <c r="AK64" s="41"/>
-      <c r="AL64" s="41"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="44"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="44"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="44"/>
+      <c r="Z64" s="44"/>
+      <c r="AA64" s="44"/>
+      <c r="AB64" s="44"/>
+      <c r="AC64" s="44"/>
+      <c r="AD64" s="44"/>
+      <c r="AE64" s="44"/>
+      <c r="AF64" s="44"/>
+      <c r="AG64" s="44"/>
+      <c r="AH64" s="44"/>
+      <c r="AI64" s="44"/>
+      <c r="AJ64" s="44"/>
+      <c r="AK64" s="44"/>
+      <c r="AL64" s="44"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41"/>
-      <c r="R65" s="41"/>
-      <c r="S65" s="41"/>
-      <c r="T65" s="41"/>
-      <c r="U65" s="41"/>
-      <c r="V65" s="41"/>
-      <c r="W65" s="41"/>
-      <c r="X65" s="41"/>
-      <c r="Y65" s="41"/>
-      <c r="Z65" s="41"/>
-      <c r="AA65" s="41"/>
-      <c r="AB65" s="41"/>
-      <c r="AC65" s="41"/>
-      <c r="AD65" s="41"/>
-      <c r="AE65" s="41"/>
-      <c r="AF65" s="41"/>
-      <c r="AG65" s="41"/>
-      <c r="AH65" s="41"/>
-      <c r="AI65" s="41"/>
-      <c r="AJ65" s="41"/>
-      <c r="AK65" s="41"/>
-      <c r="AL65" s="41"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="44"/>
+      <c r="V65" s="44"/>
+      <c r="W65" s="44"/>
+      <c r="X65" s="44"/>
+      <c r="Y65" s="44"/>
+      <c r="Z65" s="44"/>
+      <c r="AA65" s="44"/>
+      <c r="AB65" s="44"/>
+      <c r="AC65" s="44"/>
+      <c r="AD65" s="44"/>
+      <c r="AE65" s="44"/>
+      <c r="AF65" s="44"/>
+      <c r="AG65" s="44"/>
+      <c r="AH65" s="44"/>
+      <c r="AI65" s="44"/>
+      <c r="AJ65" s="44"/>
+      <c r="AK65" s="44"/>
+      <c r="AL65" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="233">
@@ -4579,7 +4587,7 @@
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;G</oddHeader>
-    <oddFooter>&amp;LEC-QCD-006&amp;CRevision Date: 12-10-14 C&amp;R&amp;P</oddFooter>
+    <oddFooter xml:space="preserve">&amp;LEC-QCD-006&amp;CRevision Date: 12-10-14 C &amp;R&amp;P </oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
